--- a/data/skraning/all.xlsx
+++ b/data/skraning/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1de5029a793934a/Documents/HR/Viðskiptagreind/vidskiptagreind-hopverkefni-1/data/skraning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD046B58-0902-924C-9FED-2180C7767D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{FD046B58-0902-924C-9FED-2180C7767D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E8C90F-2058-4444-A2F2-92651ED16002}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="14" xr2:uid="{9F11602F-0A64-7948-8CD4-8C586311CB7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F11602F-0A64-7948-8CD4-8C586311CB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="38">
   <si>
     <t>Doktorspróf</t>
   </si>
@@ -64,34 +64,7 @@
     <t>Grunnnám</t>
   </si>
   <si>
-    <t xml:space="preserve">Umhverfis- og byggingaverkfræðideild                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raunvísindadeild                                                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafmagns- og tölvuverkfræðideild                                                                                                                      </t>
-  </si>
-  <si>
-    <t>Umhverfis- og auðlindafræði</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líf- og umhverfisvísindadeild                                                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarðvísindadeild                                                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iðnaðarverkfræði-, vélaverkfræði- og tölvunarfræðideild                                                                                               </t>
-  </si>
-  <si>
     <t>Verkfræði- og náttúruvísindasvið</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppeldis- og menntunarfræðideild                                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennaradeild                                                                                                                                          </t>
   </si>
   <si>
     <t>Íþrótta-, tómstunda- og þroskaþjálfadeild</t>
@@ -100,58 +73,10 @@
     <t>Menntavísindasvið</t>
   </si>
   <si>
-    <t xml:space="preserve">Sagnfræði- og heimspekideild                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Íslensku- og menningardeild                                                                                                                           nadeild                                                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guðfræði- og trúarbragðafræðideild                                                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deild erlendra tungumála, bókmennta og málvísinda                                                                                                     </t>
-  </si>
-  <si>
     <t>Hugvísindasvið</t>
   </si>
   <si>
-    <t xml:space="preserve">Tannlæknadeild                                                                                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sálfræðideild                                                                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matvæla- og næringarfræðideild                                                                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Læknadeild                                                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyfjafræðideild                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hjúkrunarfræðideild                                                                                                                                   </t>
-  </si>
-  <si>
     <t>Heilbrigðisvísindasvið</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viðskiptafræðideild                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stjórnmálafræðideild                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagadeild                                                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hagfræðideild                                                                                                                                         </t>
-  </si>
-  <si>
-    <t>Félagsráðgjafardeild                                                                                                                                   Total</t>
-  </si>
-  <si>
-    <t>Félags- og mannvísindadeild                                                                                                                            Total</t>
   </si>
   <si>
     <t>Félagsvísindasvið</t>
@@ -167,6 +92,78 @@
   </si>
   <si>
     <t>Deild</t>
+  </si>
+  <si>
+    <t>Félags- og mannvísindadeild</t>
+  </si>
+  <si>
+    <t>Félagsráðgjafardeild</t>
+  </si>
+  <si>
+    <t>Hagfræðideild</t>
+  </si>
+  <si>
+    <t>Lagadeild</t>
+  </si>
+  <si>
+    <t>Stjórnmálafræðideild</t>
+  </si>
+  <si>
+    <t>Viðskiptafræðideild</t>
+  </si>
+  <si>
+    <t>Hjúkrunarfræðideild</t>
+  </si>
+  <si>
+    <t>Lyfjafræðideild</t>
+  </si>
+  <si>
+    <t>Læknadeild</t>
+  </si>
+  <si>
+    <t>Matvæla- og næringarfræðideild</t>
+  </si>
+  <si>
+    <t>Sálfræðideild</t>
+  </si>
+  <si>
+    <t>Tannlæknadeild</t>
+  </si>
+  <si>
+    <t>Deild erlendra tungumála, bókmennta og málvísinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guðfræði- og trúarbragðafræðideild </t>
+  </si>
+  <si>
+    <t>Íslensku- og menningardeild</t>
+  </si>
+  <si>
+    <t>Sagnfræði- og heimspekideild</t>
+  </si>
+  <si>
+    <t>Kennaradeild</t>
+  </si>
+  <si>
+    <t>Uppeldis- og menntunarfræðideild</t>
+  </si>
+  <si>
+    <t>Iðnaðarverkfræði-, vélaverkfræði- og tölvunarfræðideild</t>
+  </si>
+  <si>
+    <t>Jarðvísindadeild</t>
+  </si>
+  <si>
+    <t>Líf- og umhverfisvísindadeild</t>
+  </si>
+  <si>
+    <t>Rafmagns- og tölvuverkfræðideild</t>
+  </si>
+  <si>
+    <t>Raunvísindadeild</t>
+  </si>
+  <si>
+    <t>Umhverfis- og byggingaverkfræðideild</t>
   </si>
 </sst>
 </file>
@@ -559,6 +556,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -858,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AA900-BDA3-4340-A618-FD41BC47D444}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -874,22 +875,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -900,7 +901,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -986,7 +987,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -1068,7 +1069,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -1150,7 +1151,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -1232,7 +1233,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -1314,7 +1315,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -1396,12 +1397,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -1483,7 +1484,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -1565,7 +1566,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -1730,7 +1731,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -1812,7 +1813,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -1894,12 +1895,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -1981,7 +1982,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -2063,7 +2064,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -2145,7 +2146,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -2227,12 +2228,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -2314,7 +2315,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -2396,7 +2397,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -2478,12 +2479,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -2565,7 +2566,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -2647,7 +2648,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -2729,7 +2730,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -2811,7 +2812,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -2893,7 +2894,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -2974,86 +2975,39 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B132" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B132" s="11"/>
       <c r="C132" s="10"/>
-      <c r="D132" s="10">
-        <f>SUM(D133:D136)</f>
-        <v>132</v>
-      </c>
-      <c r="E132" s="10">
-        <f>SUM(E133:E136)</f>
-        <v>139</v>
-      </c>
-      <c r="F132" s="15">
-        <f>SUM(F133:F136)</f>
-        <v>271</v>
-      </c>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="15"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
-      <c r="C133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133">
-        <v>92</v>
-      </c>
-      <c r="E133">
-        <v>64</v>
-      </c>
-      <c r="F133" s="6">
-        <f>SUM(D133:E133)</f>
-        <v>156</v>
-      </c>
+      <c r="C133" s="2"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
-      <c r="C134" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>0</v>
-      </c>
-      <c r="F134" s="6">
-        <f>SUM(D134:E134)</f>
-        <v>0</v>
-      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
-      <c r="C135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135" s="6">
-        <f>SUM(D135:E135)</f>
-        <v>4</v>
-      </c>
+      <c r="C135" s="2"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B136" s="8"/>
-      <c r="C136" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>38</v>
-      </c>
-      <c r="E136">
-        <v>73</v>
-      </c>
-      <c r="F136" s="6">
-        <f>SUM(D136:E136)</f>
-        <v>111</v>
-      </c>
+      <c r="C136" s="7"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
@@ -3228,7 +3182,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D128" sqref="D128:E128"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3241,22 +3195,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3267,7 +3221,7 @@
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -3353,7 +3307,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -3435,7 +3389,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -3517,7 +3471,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -3599,7 +3553,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -3681,7 +3635,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -3763,12 +3717,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -3850,7 +3804,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -3932,7 +3886,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -4096,7 +4050,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -4178,7 +4132,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -4260,12 +4214,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -4347,7 +4301,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -4429,7 +4383,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -4511,7 +4465,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -4593,12 +4547,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -4680,7 +4634,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -4762,7 +4716,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -4844,12 +4798,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -4931,7 +4885,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -5013,7 +4967,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -5095,7 +5049,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -5177,7 +5131,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -5259,7 +5213,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -5492,7 +5446,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5505,22 +5459,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5531,7 +5485,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -5617,7 +5571,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -5699,7 +5653,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -5781,7 +5735,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -5863,7 +5817,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -5945,7 +5899,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -6027,12 +5981,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -6114,7 +6068,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -6196,7 +6150,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -6360,7 +6314,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -6442,7 +6396,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -6524,12 +6478,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -6611,7 +6565,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -6693,7 +6647,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -6775,7 +6729,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -6857,12 +6811,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -6944,7 +6898,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -7026,7 +6980,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -7108,12 +7062,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -7195,7 +7149,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -7277,7 +7231,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -7359,7 +7313,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -7441,7 +7395,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -7523,7 +7477,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -7756,7 +7710,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7769,22 +7723,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7795,7 +7749,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -7881,7 +7835,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -7963,7 +7917,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -8045,7 +7999,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -8127,7 +8081,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -8209,7 +8163,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -8285,12 +8239,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -8372,7 +8326,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -8454,7 +8408,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -8618,7 +8572,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -8700,7 +8654,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -8782,12 +8736,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -8869,7 +8823,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -8951,7 +8905,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -9033,7 +8987,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -9115,12 +9069,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -9202,7 +9156,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -9284,7 +9238,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -9366,12 +9320,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -9453,7 +9407,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -9535,7 +9489,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -9621,7 +9575,7 @@
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -9703,7 +9657,7 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -9785,7 +9739,7 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -10018,7 +9972,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="163" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10031,22 +9985,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10057,7 +10011,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -10143,7 +10097,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -10225,7 +10179,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -10307,7 +10261,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -10389,7 +10343,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -10471,7 +10425,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -10553,12 +10507,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -10640,7 +10594,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -10722,7 +10676,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -10886,7 +10840,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -10968,7 +10922,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -11050,12 +11004,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -11137,7 +11091,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -11219,7 +11173,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -11301,7 +11255,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -11383,12 +11337,12 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -11470,7 +11424,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -11561,7 +11515,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -11643,12 +11597,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -11730,7 +11684,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -11812,7 +11766,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -11894,7 +11848,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -11976,7 +11930,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -12058,7 +12012,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -12291,7 +12245,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView topLeftCell="A92" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12304,22 +12258,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12330,7 +12284,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -12416,7 +12370,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -12498,7 +12452,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -12580,7 +12534,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -12662,7 +12616,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -12744,7 +12698,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -12826,12 +12780,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -12913,7 +12867,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -12995,7 +12949,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -13159,7 +13113,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -13241,7 +13195,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -13323,12 +13277,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -13410,7 +13364,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -13492,7 +13446,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -13574,7 +13528,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -13656,12 +13610,12 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -13743,7 +13697,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -13834,7 +13788,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -13916,12 +13870,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -14003,7 +13957,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -14085,7 +14039,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -14167,7 +14121,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -14249,7 +14203,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -14331,7 +14285,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -14563,8 +14517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48748C82-1C56-0E45-B2E9-921106BB75E8}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A121" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14577,22 +14531,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -14603,7 +14557,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -14689,7 +14643,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -14771,7 +14725,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -14853,7 +14807,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -14935,7 +14889,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -15017,7 +14971,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -15099,12 +15053,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -15186,7 +15140,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -15268,7 +15222,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -15432,7 +15386,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -15514,7 +15468,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -15596,12 +15550,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -15683,7 +15637,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -15765,7 +15719,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -15847,7 +15801,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -15929,12 +15883,12 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -16016,7 +15970,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -16110,7 +16064,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -16192,12 +16146,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -16279,7 +16233,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -16361,7 +16315,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -16443,7 +16397,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -16525,7 +16479,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -16607,7 +16561,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -16839,8 +16793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82EBE6-19A1-4642-BCD2-A5F101D2821F}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A108" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16853,22 +16807,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16879,7 +16833,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -16965,7 +16919,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -17046,7 +17000,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -17128,7 +17082,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -17210,7 +17164,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -17292,7 +17246,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -17374,12 +17328,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -17461,7 +17415,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -17543,7 +17497,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -17707,7 +17661,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -17789,7 +17743,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -17871,12 +17825,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -17958,7 +17912,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -18040,7 +17994,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -18122,7 +18076,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -18204,12 +18158,12 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -18293,7 +18247,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -18375,7 +18329,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -18457,12 +18411,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -18544,7 +18498,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -18626,7 +18580,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -18708,7 +18662,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -18790,7 +18744,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -18872,7 +18826,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -19106,7 +19060,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -19119,22 +19073,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -19145,7 +19099,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -19231,7 +19185,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -19313,7 +19267,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -19395,7 +19349,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -19477,7 +19431,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -19559,7 +19513,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -19641,12 +19595,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -19728,7 +19682,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -19810,7 +19764,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -19974,7 +19928,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -20056,7 +20010,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -20138,12 +20092,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -20225,7 +20179,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -20307,7 +20261,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -20389,7 +20343,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -20471,12 +20425,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -20558,7 +20512,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -20640,7 +20594,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -20722,12 +20676,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -20809,7 +20763,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -20891,7 +20845,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -20973,7 +20927,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -21055,7 +21009,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -21137,7 +21091,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -21370,7 +21324,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -21383,22 +21337,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -21409,7 +21363,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -21495,7 +21449,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -21577,7 +21531,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -21659,7 +21613,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -21741,7 +21695,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -21823,7 +21777,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -21905,12 +21859,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -21992,7 +21946,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -22074,7 +22028,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -22238,7 +22192,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -22320,7 +22274,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -22402,12 +22356,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -22489,7 +22443,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -22571,7 +22525,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -22653,7 +22607,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -22735,12 +22689,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -22822,7 +22776,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -22904,7 +22858,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -22986,12 +22940,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -23073,7 +23027,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -23155,7 +23109,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -23237,7 +23191,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -23319,7 +23273,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -23401,7 +23355,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -23634,7 +23588,7 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23647,22 +23601,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -23673,7 +23627,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -23759,7 +23713,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -23841,7 +23795,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -23923,7 +23877,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -24005,7 +23959,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -24087,7 +24041,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -24169,12 +24123,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -24256,7 +24210,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -24338,7 +24292,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -24502,7 +24456,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -24584,7 +24538,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -24666,12 +24620,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -24753,7 +24707,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -24835,7 +24789,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -24917,7 +24871,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -24999,12 +24953,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -25086,7 +25040,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -25168,7 +25122,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -25250,12 +25204,12 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -25339,7 +25293,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -25421,7 +25375,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -25503,7 +25457,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -25585,7 +25539,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -25667,7 +25621,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -25900,7 +25854,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView topLeftCell="A117" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25913,22 +25867,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -25939,7 +25893,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -26025,7 +25979,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -26107,7 +26061,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -26189,7 +26143,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -26271,7 +26225,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -26353,7 +26307,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -26435,12 +26389,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -26522,7 +26476,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -26604,7 +26558,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -26768,7 +26722,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -26850,7 +26804,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -26932,12 +26886,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -27019,7 +26973,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -27101,7 +27055,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -27183,7 +27137,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -27265,12 +27219,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -27352,7 +27306,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -27434,7 +27388,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -27516,12 +27470,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -27603,7 +27557,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -27685,7 +27639,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -27767,7 +27721,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -27849,7 +27803,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -27931,7 +27885,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -28163,8 +28117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E151A97E-50E6-5046-8542-2086CE4730E4}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28177,22 +28131,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -28203,7 +28157,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
@@ -28289,7 +28243,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -28371,7 +28325,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -28453,7 +28407,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -28535,7 +28489,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -28617,7 +28571,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -28699,12 +28653,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -28786,7 +28740,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -28868,7 +28822,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -29032,7 +28986,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -29114,7 +29068,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -29196,12 +29150,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -29283,7 +29237,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -29365,7 +29319,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -29447,7 +29401,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10">
@@ -29529,12 +29483,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10">
@@ -29616,7 +29570,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10">
@@ -29698,7 +29652,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10">
@@ -29780,12 +29734,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10">
@@ -29867,7 +29821,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10">
@@ -29949,7 +29903,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10">
@@ -30031,7 +29985,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10">
@@ -30113,7 +30067,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10">
@@ -30195,7 +30149,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10">
@@ -30428,7 +30382,7 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -30442,22 +30396,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="41" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -30468,7 +30422,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="43">
@@ -30554,7 +30508,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="43">
@@ -30636,7 +30590,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="43">
@@ -30718,7 +30672,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="43">
@@ -30800,7 +30754,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="43">
@@ -30882,7 +30836,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="43">
@@ -30964,12 +30918,12 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="43">
@@ -31057,7 +31011,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="43">
@@ -31151,7 +31105,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="43">
@@ -31315,7 +31269,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="43">
@@ -31397,7 +31351,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="43">
@@ -31479,12 +31433,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="43">
@@ -31566,7 +31520,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="43">
@@ -31648,7 +31602,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="43">
@@ -31730,7 +31684,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="43">
@@ -31812,12 +31766,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="43">
@@ -31899,7 +31853,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="43">
@@ -31981,7 +31935,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="43">
@@ -32069,12 +32023,12 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="43">
@@ -32156,7 +32110,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="43">
@@ -32238,7 +32192,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="43">
@@ -32320,7 +32274,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="43">
@@ -32402,7 +32356,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="43">
@@ -32484,7 +32438,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="43">
@@ -32717,7 +32671,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E131"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -32731,22 +32685,22 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="41" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -32757,7 +32711,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="43">
@@ -32843,7 +32797,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="43">
@@ -32925,7 +32879,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="43">
@@ -33007,7 +32961,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="43">
@@ -33089,7 +33043,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="43">
@@ -33171,7 +33125,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="43">
@@ -33253,12 +33207,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="43">
@@ -33340,7 +33294,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="43">
@@ -33422,7 +33376,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="43">
@@ -33586,7 +33540,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="43">
@@ -33668,7 +33622,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="43">
@@ -33750,12 +33704,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="43">
@@ -33837,7 +33791,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="43">
@@ -33919,7 +33873,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="43">
@@ -34001,7 +33955,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="43">
@@ -34083,12 +34037,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="43">
@@ -34170,7 +34124,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="43">
@@ -34252,7 +34206,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="43">
@@ -34334,12 +34288,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="43">
@@ -34421,7 +34375,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="43">
@@ -34503,7 +34457,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="43">
@@ -34585,7 +34539,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="43">
@@ -34667,7 +34621,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="43">
@@ -34749,7 +34703,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="43">
